--- a/Testcases/Forget_Password_Testcases.xlsx
+++ b/Testcases/Forget_Password_Testcases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Expected Result</t>
   </si>
@@ -68,9 +68,6 @@
     <t>TC05</t>
   </si>
   <si>
-    <t>Enter wrong token all 3 attempts</t>
-  </si>
-  <si>
     <t>System prints "Error: Password Reset denied."</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>TC07</t>
   </si>
   <si>
-    <t>Token Expiry</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter expired token </t>
   </si>
   <si>
@@ -125,16 +119,34 @@
     <t>TC08</t>
   </si>
   <si>
-    <t>Password Reset</t>
-  </si>
-  <si>
     <t>DB updates password &amp; last_modified</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Enter valid email &amp; correct token,then set new password</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Enter wrong token all 2 attempts</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>Token Expiry: Verify what happens when a Expired Token is entered</t>
+  </si>
+  <si>
+    <t>Password Reset : Verify what happens when a new password is entered</t>
+  </si>
+  <si>
+    <t>Password Reset : Verify what happens when interrupt occurs before new password is entered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter valid email &amp; correct token, then before new password is entered Keyboard Interrupt occurs </t>
+  </si>
+  <si>
+    <t>Old Password Remains</t>
   </si>
 </sst>
 </file>
@@ -530,7 +542,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="85.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -541,33 +553,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="85.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
@@ -575,17 +587,19 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -593,17 +607,19 @@
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
@@ -611,17 +627,19 @@
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
@@ -629,86 +647,109 @@
       <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
